--- a/excel/file.xlsx
+++ b/excel/file.xlsx
@@ -485,7 +485,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2">
-        <v>37131.770833333336</v>
+        <v>37129.770833333336</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
